--- a/MT3 Test case.xlsx
+++ b/MT3 Test case.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="queries" sheetId="3" r:id="rId2"/>
+    <sheet name="Administrator" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -52,8 +53,46 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cannot contain the following invalid characters: \/:%'*?&lt;&gt;|".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Invalid test type.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="189">
   <si>
     <t>Subject</t>
   </si>
@@ -231,18 +270,12 @@
     <t>To verify that BOT  login to "https://testcapgemini.assignmentpro.com/Security/UserMaintenance/Users.aspx" to check the existance of user profile.</t>
   </si>
   <si>
-    <t>BOT successfully logged into ITSM and values are copied for required incident</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOT access the link "https://testcapgemini.assignmentpro.com/Security/UserMaintenance/Users.aspx" and login using the </t>
   </si>
   <si>
     <t xml:space="preserve">page 3 </t>
   </si>
   <si>
-    <t>how the bot validates the status  i.e will it click and verify the status or validate the status in home page itself</t>
-  </si>
-  <si>
     <t>page 4</t>
   </si>
   <si>
@@ -252,14 +285,532 @@
     <t>what is the result of link given in step 3</t>
   </si>
   <si>
-    <t>when the BOT clicks on assign to me</t>
+    <t>how the bot validates the status  i.e will it click on each of the incident and verify the status or validate the status in home page itself</t>
+  </si>
+  <si>
+    <t>when the BOT clicks on assign to me in left side menu</t>
+  </si>
+  <si>
+    <t>BOT successfully logged into ITSM and required values are copied from the incident</t>
+  </si>
+  <si>
+    <t>To verify that BOT will send an email to DL IN MyAssignmenttechsupport &lt;myassignmenttechsupport.in@capgemini.com&gt; with proper reason and will assign the ITSM ticket to MyAssignment Global L3 if BOT finds that searching employee is already assigned with the requested role</t>
+  </si>
+  <si>
+    <t>BOT successfully logged into ITSM and  required values are copied from the incident.</t>
+  </si>
+  <si>
+    <t>BOT access the link "https://testcapgemini.assignmentpro.com/Security/UserMaintenance/Users.aspx" and login using the  NON SSO credentials fetched from orchestrator assets</t>
+  </si>
+  <si>
+    <t>login should successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOT goes to Configuration--user </t>
+  </si>
+  <si>
+    <t>control should move to the USER maintenance frame</t>
+  </si>
+  <si>
+    <t>BOT selects USER type as internal enters enail id copied from notes and clicks on submit button</t>
+  </si>
+  <si>
+    <t>application should fetch the related search records</t>
+  </si>
+  <si>
+    <t>BOT compares the value under Security Role with the Role copied from the notes and checks for the value as blank under exipration column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the result is YES then BOT should send an email to DL IN MyAssignmenttechsupport &lt;myassignmenttechsupport.in@capgemini.com&gt; with proper reason and will assign the ITSM ticket to MyAssignment Global L3 </t>
+  </si>
+  <si>
+    <t>To verify that BOT will proceed for User profile creation if BOT doesn't find any matches in the search result</t>
+  </si>
+  <si>
+    <t>BOT successfully logged into ITSM and  required values are copied from the incident and searched for existance of user profile</t>
+  </si>
+  <si>
+    <t>If result is NO then BOT should browse https://testcapgemini.assignmentpro.com/Security/UserMaintenance/UserMaintenance.aspx?UserID=0</t>
+  </si>
+  <si>
+    <t>BOT goes to Configuration ---&gt;User Maintenance and clicks on + sign to create new one</t>
+  </si>
+  <si>
+    <t>click on + sign should take the control to user maintenance frame to create a new profile</t>
+  </si>
+  <si>
+    <t>BOT fills the required fields as per the data provided and clicks on save button</t>
+  </si>
+  <si>
+    <t>next step after clickoing on save button while creating new user profile</t>
+  </si>
+  <si>
+    <t>BOT successfully created user profile</t>
+  </si>
+  <si>
+    <t>To verify that BOT proceeds to create resource profile after creation of user profile with the Roles other than Admin, Admin readonly, and que manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOT access https://testcapgemini.assignmentpro.com/Main/Resource/ResourceDetails.aspx
+?ResourceID=0
+</t>
+  </si>
+  <si>
+    <t>a page should open to fill the data</t>
+  </si>
+  <si>
+    <t>Incomplete snapshots to create resource summary and some doubts in resource summary data</t>
+  </si>
+  <si>
+    <t>fill all the required data as per the instructions given and clicks on save</t>
+  </si>
+  <si>
+    <t>resource profile should create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that BOT will raise request in JIRA to add the user access (except Queue Manager) in questionnaire </t>
+  </si>
+  <si>
+    <t>BOT successfully created User profile and/or resource profile successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOT access
+https://equusoft.atlassian.net/browse/CAP-2362 </t>
+  </si>
+  <si>
+    <t>open issues page should open</t>
+  </si>
+  <si>
+    <t>clicks on + symbol on left side of the page</t>
+  </si>
+  <si>
+    <t>click on + symbol opens a new page to create issue</t>
+  </si>
+  <si>
+    <t>BOT selects the below values 
+1)project
+2)Issue type
+3)Summary
+4)Components
+5)Assignee
+6)priority
+7)due date
+8)description
+9)work type</t>
+  </si>
+  <si>
+    <t>BOT should select the below values 
+1)project---Capgemini
+2)Issue type---Task
+3)Summary----Questionnaire access
+4)Components---support
+5)Assignee---some assignee
+6)priority---High
+7)due date---current date
+8)description----description should be as per the given template having the employee name followed by email id
+9)work type--Support work</t>
+  </si>
+  <si>
+    <t>BOT clicks on create button after filling all the details</t>
+  </si>
+  <si>
+    <t>Request should be rised.</t>
+  </si>
+  <si>
+    <t>To verify that BOT will close the ITSM ticket after creating user profile and/or Resource profile and/or Questionnaire request in JIRA</t>
+  </si>
+  <si>
+    <t>BOT successfully created user profile and/or resource profile and/or questionnaire access in JIRA</t>
+  </si>
+  <si>
+    <t>BOT goes to ITSM page where it copied values from Notes</t>
+  </si>
+  <si>
+    <t>control should redirect to ITSM page</t>
+  </si>
+  <si>
+    <t>BOT goes to --Categorisation menu in the right side frame--and clicks on resolution categorisation</t>
+  </si>
+  <si>
+    <t>Resolution categorization should appear providing some fields to fill</t>
+  </si>
+  <si>
+    <t>BOT will fill the below fields
+1)tier 1
+2)cause
+3)status
+4)status reason
+5)Resolution</t>
+  </si>
+  <si>
+    <t>BOT should fill the values as below 
+1)tier 1---updated
+2)cause---data
+3)status---resolved
+4)status reason---Resolved by providing workaround
+5)Resolution---User profile has been created in the MyAssignment system</t>
+  </si>
+  <si>
+    <t>BOT clicks on save button after filling the above values</t>
+  </si>
+  <si>
+    <t>ticket should get closed</t>
+  </si>
+  <si>
+    <t>ITSM incident consol page should open</t>
+  </si>
+  <si>
+    <t>BOT selects value as"Assigned to my selected groups" at show dropdown and selects multitech-saas from the popup shown after selecting "Assigned to my selected groups"</t>
+  </si>
+  <si>
+    <t>related Tickets should be displayed in the incident consol page</t>
+  </si>
+  <si>
+    <t>Bot Launches the BMC Remedy ITSM (http://gditmutwswv51p.corp.capgemini.com:8080/arsys/shared/login.jsp/) and Login using the Non-SSO credentials stored in Orchestrator Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOT extract each incident and checks for the column “Operation Categorization Tier 3” for value “Internal User Profile Creation”.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOT should check for the column “Operation Categorization Tier 3” for value “Internal User Profile Creation”.  </t>
+  </si>
+  <si>
+    <t>If the BOT finds the values as "internal user profile creation" at the column "operation categorization tier 3" BOT clicks on search incident</t>
+  </si>
+  <si>
+    <t>BOT should click on search incident if the value matches as expected</t>
+  </si>
+  <si>
+    <t>BOT enters the incident number clicks on view button to open the Notes</t>
+  </si>
+  <si>
+    <t>Notes should open</t>
+  </si>
+  <si>
+    <t>BOT should check for the availability of expected values from the notes</t>
+  </si>
+  <si>
+    <t>if all the expected values are present in the note then bot copies the values.</t>
+  </si>
+  <si>
+    <t>BOT should copy all the values from the notes</t>
+  </si>
+  <si>
+    <t>BOT launches myassignment SIT link "https://testcapgemini.assignmentpro.com/Security/UserMaintenance/Users.aspx" with the credentials stored in orchestrator</t>
+  </si>
+  <si>
+    <t>My Assignment home page should open</t>
+  </si>
+  <si>
+    <t>BOT goes to Configuration-- User maintenance and clicks on User maintenance</t>
+  </si>
+  <si>
+    <t>related user management page should open.</t>
+  </si>
+  <si>
+    <t>BOT selects Usertype as "Internal", enters Email ID copied from the Notes and clicks on search button</t>
+  </si>
+  <si>
+    <t>Application should fetch all the matched search records</t>
+  </si>
+  <si>
+    <t>If BOT Found any existed "Administrator" Role for the same searched employee then BOT will send an email to DL IN MyAssignmenttechsupport &lt;myassignmenttechsupport.in@capgemini.com&gt; stating the existance of role</t>
+  </si>
+  <si>
+    <t>BOT should search among all the search results</t>
+  </si>
+  <si>
+    <t>BOT should send email to DL IN MyAssignmenttechsupport &lt;myassignmenttechsupport.in@capgemini.com&gt; stating the existance of role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOT should proceed for the </t>
+  </si>
+  <si>
+    <t>BOT launches "https://testcapgemini.assignmentpro.com/Security/UserMaintenance/UserMaintenance.aspx?UserID=0" to create new user profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOT should launch the expected link </t>
+  </si>
+  <si>
+    <t>BOT clicks on + sign to create new profile</t>
+  </si>
+  <si>
+    <t>click on + Sign should redirect to create new user prfile</t>
+  </si>
+  <si>
+    <t>BOT checks for the below values
+1)GGID--- some value
+2)first name----some value
+3)Last name-----some value
+4)Email ID ----EMAIL ID@Capgemini.com
+5)Role ----Administrator</t>
+  </si>
+  <si>
+    <t>BOT clicks on save</t>
+  </si>
+  <si>
+    <t>BOT fills below fields in User frame
+Expiration Date
+External System Identifier
+SSO User
+Auto Create Resource
+ User Type
+User ID
+First Name
+Last name
+Email
+User Description</t>
+  </si>
+  <si>
+    <t>BOT selects Security Role in security role association frame</t>
+  </si>
+  <si>
+    <t>BOT should select security Role as Administrator</t>
+  </si>
+  <si>
+    <t>BOT selects company in Company access frame</t>
+  </si>
+  <si>
+    <t>BOT should select Company as capgeminy</t>
+  </si>
+  <si>
+    <t>BOT clicks on save button</t>
+  </si>
+  <si>
+    <t>application should validatefor the mandatory fields and it should save the details if all the required values are given</t>
+  </si>
+  <si>
+    <t>application should validatefor the mandatory fields and it should save all the give details and control should redirect to User maintenance page to generate password</t>
+  </si>
+  <si>
+    <t>BOT Clicks on generate password in usermaintenace frame opened</t>
+  </si>
+  <si>
+    <t>To verify that BOT can create resource profile after successful completion of userprofile creation</t>
+  </si>
+  <si>
+    <t>User profile created successfully</t>
+  </si>
+  <si>
+    <t>BOT launches "https://testcapgemini.assignmentpro.com/Security/UserMaintenance/UserMaintenance.aspx?UserID=0" to create resource profile</t>
+  </si>
+  <si>
+    <t>BOT should launch the expected link and Myassignment page should open</t>
+  </si>
+  <si>
+    <t>BOT goes to Configuration-- Resource and clicks on Resource menu</t>
+  </si>
+  <si>
+    <t>Resource details page should open to fill the date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOT fills below fields In resource details frame
+Resource Name
+User id
+First name
+Last name
+Email
+</t>
+  </si>
+  <si>
+    <t>BOT should fill the expected fields with data as below
+Resource Name----&gt;Same as User ID
+User id---------------&gt;Select the User ID from the dropdown
+First name-----------&gt;First name
+Last name------------&gt;Last Name
+Email------------------&gt;Email</t>
+  </si>
+  <si>
+    <t>BOT should select "Authorisation coordinator" under Role exception in role association frame</t>
+  </si>
+  <si>
+    <t>BOT selects some Role under Role exception in Role association frame</t>
+  </si>
+  <si>
+    <t>BOT selects a value from default Role dropdown in Role association frame</t>
+  </si>
+  <si>
+    <t>BOT selects a value from default Role dropdown in Company association frame</t>
+  </si>
+  <si>
+    <t>BOT should select "Deny all roles" from default role dropdwon in role association frame</t>
+  </si>
+  <si>
+    <t>BOT should select "Associate with No Companies" from default role dropdwon in company association frame</t>
+  </si>
+  <si>
+    <t>BOT selects some Role under Company exception in company association frame</t>
+  </si>
+  <si>
+    <t>BOT should select "Capgemini" under company exception in company association frame</t>
+  </si>
+  <si>
+    <t>after click on save button</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>What is the result of click on generate password while creating user profile</t>
+  </si>
+  <si>
+    <t>what is the result of final click on save button while creating resource profile</t>
+  </si>
+  <si>
+    <t>does the BOT rise a request in JIRA if there is no resource profile created.</t>
+  </si>
+  <si>
+    <t>User profile and Resource profile created successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOT launch the "https://equusoft.atlassian.net/browse/CAP-2362" to add the user access in Questionnaire </t>
+  </si>
+  <si>
+    <t>related page should open</t>
+  </si>
+  <si>
+    <t>BOT clicks on + sign on left side of the page</t>
+  </si>
+  <si>
+    <t>create issue pop up should open to fill the details</t>
+  </si>
+  <si>
+    <t>BOT select/write a value into the below fileds
+Project
+Issue type
+Summary
+Components
+Assignee
+priority
+due date
+Description
+Worktype</t>
+  </si>
+  <si>
+    <t>BOT should select/write a value into the below fileds as below
+Project----------&gt;capgemin(CAP)
+Issue type-------&gt;task
+Summary--------&gt;Questionnaire access
+Components----&gt;support
+Assignee---------&gt;respected resolver
+priority-----------&gt;High
+due date---------&gt;current date
+Description------&gt;as per the given description including name and mail id of employee
+Worktype--------&gt;Support work</t>
+  </si>
+  <si>
+    <t>BOT clicks on create button</t>
+  </si>
+  <si>
+    <t>application should create an incident with the filled details</t>
+  </si>
+  <si>
+    <t>To verify that BOT will raise request in JIRA to add the user access in questionnaire after successful completion of Resource profile creation</t>
+  </si>
+  <si>
+    <t>To verify that BOT Closes the incident after successful completion of user profile and Resource profile creation and Incident rise for questionnaire access</t>
+  </si>
+  <si>
+    <t>User profile and Resource profile created successfully and incident is rised for questionnaire access</t>
+  </si>
+  <si>
+    <t>BOT goes to the page where it copied details from NOTE in ITSM page</t>
+  </si>
+  <si>
+    <t>BOT should go to search incident page where it copied the details from notes in ITSM page</t>
+  </si>
+  <si>
+    <t>BOT will select the ‘Categorization’ tab from incident &amp; will click on ‘Show Resolution Categorization'</t>
+  </si>
+  <si>
+    <t>Resolution categorization tab should open to edit</t>
+  </si>
+  <si>
+    <t>BOT select the below fileds
+tier1
+cause
+status
+status reason
+Resolution</t>
+  </si>
+  <si>
+    <t>BOT should select the below fileds with the given values
+tier1---------&gt;updated
+cause--------&gt; data
+status--------&gt; resolved
+status reason--&gt; resolved by providing workaround
+Resolution ------&gt;User profile has been created in the MyAssignment system</t>
+  </si>
+  <si>
+    <t>BOT clicks on save button after filling the above details</t>
+  </si>
+  <si>
+    <t>Application should save the details and incident should changed to resolved status in the ITSM page</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOT checks for existance of "Administrator" under security Role column </t>
+  </si>
+  <si>
+    <t>TO verify that BOT can provide "internal user access with Administrator role in myassignment" by fetching the Inident from ITSM</t>
+  </si>
+  <si>
+    <t>If BOT doesn't found the Administrator role then it will proceed for the user profile creation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BOT should fill the expected fields with data copied from notes as below
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    field                            value copied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Expiration Date------------------&gt;Blank
+External System Identifier-----&gt;GGID
+SSO User---------------------------&gt;YES
+Auto Create Resource-----------&gt;NO
+ User Type-------------------------&gt;Internal
+User ID-----------------------------&gt;Email ID_Admin
+First Name-------------------------&gt;Firstname
+Last name--------------------------&gt;Last Name
+Email--------------------------------&gt;Email ID@capgemini.com
+User description-------------------&gt;Administrator</t>
+    </r>
+  </si>
+  <si>
+    <t>All the Links required should be up and running</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +833,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +858,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -333,6 +910,33 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -639,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,6 +1389,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
@@ -821,6 +1426,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
@@ -845,7 +1451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="G17" s="3" t="s">
         <v>46</v>
       </c>
@@ -853,7 +1459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G18" s="3" t="s">
         <v>42</v>
       </c>
@@ -861,7 +1467,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
@@ -878,7 +1485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="G20" s="3" t="s">
         <v>47</v>
       </c>
@@ -886,7 +1493,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
@@ -894,10 +1502,189 @@
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>51</v>
+    </row>
+    <row r="25" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="G28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G31" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="G40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="G44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -909,44 +1696,650 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D7"/>
+  <dimension ref="C4:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="103" customWidth="1"/>
+    <col min="4" max="4" width="121.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="58" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="52.140625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" s="3">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="3">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="210.75" x14ac:dyDescent="0.25">
+      <c r="F19" s="3">
+        <v>17</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <v>18</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <v>19</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <v>22</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F25" s="3">
+        <v>23</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F32" s="3">
+        <v>6</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F33" s="3">
+        <v>7</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F34" s="3">
+        <v>8</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F35" s="3">
+        <v>9</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
+        <v>10</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F41" s="3">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="F44" s="3">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F45" s="3">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>